--- a/data/monday.xlsx
+++ b/data/monday.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -412,39 +412,6 @@
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
